--- a/reports_pdf/brasil/risk-pt/Cases/02-09-2020_brasil_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/02-09-2020_brasil_report_EPG.xlsx
@@ -79454,7 +79454,7 @@
         </is>
       </c>
       <c r="D4394" t="n">
-        <v>587.9839114063295</v>
+        <v>675.428303423933</v>
       </c>
     </row>
     <row r="4395">
@@ -96644,7 +96644,7 @@
         </is>
       </c>
       <c r="D5349" t="n">
-        <v>284.2545447703102</v>
+        <v>284.4953629410227</v>
       </c>
     </row>
   </sheetData>
